--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.26829999999999</v>
+        <v>-10.54819999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.983299999999994</v>
+        <v>-6.704599999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.142</v>
+        <v>16.0849</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.4944</v>
+        <v>16.5722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.60299999999999</v>
+        <v>-21.59099999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.35599999999999</v>
+        <v>-13.9523</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.88260000000001</v>
+        <v>16.8149</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.4544</v>
+        <v>16.4125</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.76910000000001</v>
+        <v>16.69600000000001</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.595399999999999</v>
+        <v>-7.585600000000004</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.592700000000008</v>
+        <v>-7.597600000000003</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,18 +876,18 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.3592</v>
+        <v>-13.1398</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67659999999999</v>
+        <v>15.80359999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9081</v>
+        <v>-21.84789999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.247000000000006</v>
+        <v>-7.275200000000007</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.8501</v>
+        <v>-12.8312</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.41199999999999</v>
+        <v>-21.4927</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.32290000000001</v>
+        <v>-12.50160000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.8374</v>
+        <v>-19.82039999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.2039</v>
+        <v>16.24540000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.9061</v>
+        <v>-14.0817</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.51610000000001</v>
+        <v>-19.4375</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.141600000000004</v>
+        <v>-7.192100000000006</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.48039999999999</v>
+        <v>-14.28149999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.47870000000001</v>
+        <v>-21.4187</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.295799999999999</v>
+        <v>-7.382000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.8983</v>
+        <v>-10.9667</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.41779999999999</v>
+        <v>-21.38639999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.6222</v>
+        <v>-22.52580000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.11630000000001</v>
+        <v>-22.14960000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.18089999999999</v>
+        <v>-14.0301</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.803000000000001</v>
+        <v>-7.8933</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.436</v>
+        <v>17.38200000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.50389999999997</v>
+        <v>-21.46429999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67379999999999</v>
+        <v>-21.64439999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.47009999999999</v>
+        <v>-21.42709999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.576900000000003</v>
+        <v>-7.699100000000002</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.04100000000003</v>
+        <v>17.83040000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.2815</v>
+        <v>-13.2058</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.6877</v>
+        <v>-21.39989999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.6009</v>
+        <v>-11.44260000000001</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.564100000000003</v>
+        <v>-8.610800000000006</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.31560000000002</v>
+        <v>-22.33250000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.303500000000001</v>
+        <v>-7.060299999999994</v>
       </c>
       <c r="E89" t="n">
-        <v>17.21580000000002</v>
+        <v>17.46360000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.4903</v>
+        <v>-21.5037</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.233099999999997</v>
+        <v>-6.461499999999996</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.240600000000001</v>
+        <v>-6.526</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.25830000000001</v>
+        <v>-21.1114</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.467300000000007</v>
+        <v>-7.457800000000004</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.32609999999998</v>
+        <v>-20.40319999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.6353</v>
+        <v>-12.4678</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-14.4054</v>
+        <v>-14.70619999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.871899999999998</v>
+        <v>-7.796499999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
